--- a/documents/指令集.xlsx
+++ b/documents/指令集.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\THU\2016Autumn\计算机组成原理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\THU\2016Autumn\CPU\THINPAD\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="指令集" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -234,6 +234,46 @@
   </si>
   <si>
     <t>immediate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUOp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001/A+B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011/A&amp;B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000/zero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100/A|B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0110/B&gt;&gt;A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010/A-B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101/B&lt;&lt;A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101/B&lt;&lt;A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0111/-B</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -288,17 +328,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -605,20 +648,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="8" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="2.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="2"/>
+    <col min="20" max="20" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,8 +720,11 @@
       <c r="R1" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -696,23 +746,26 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="T2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -734,27 +787,30 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
       <c r="N3" s="1">
         <v>0</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="T3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -785,18 +841,21 @@
       <c r="J4" s="1">
         <v>1</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="T4" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -818,29 +877,32 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
       <c r="Q5" s="1">
         <v>0</v>
       </c>
       <c r="R5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -862,16 +924,16 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
       <c r="N6" s="1">
         <v>0</v>
       </c>
@@ -887,8 +949,11 @@
       <c r="R6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -910,21 +975,24 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="T7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -946,23 +1014,26 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="T8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -984,23 +1055,26 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="T9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1031,18 +1105,21 @@
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="T10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1064,16 +1141,16 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2" t="s">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
       <c r="N11" s="1">
         <v>0</v>
       </c>
@@ -1089,8 +1166,11 @@
       <c r="R11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1112,11 +1192,11 @@
       <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="1">
         <v>0</v>
       </c>
@@ -1141,8 +1221,11 @@
       <c r="R12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T12" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1164,23 +1247,26 @@
       <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2" t="s">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="T13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1202,25 +1288,28 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2" t="s">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2" t="s">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="T14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1242,23 +1331,26 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="T15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1280,11 +1372,11 @@
       <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="1">
         <v>0</v>
       </c>
@@ -1309,8 +1401,11 @@
       <c r="R16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1332,11 +1427,11 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="1">
         <v>0</v>
       </c>
@@ -1361,8 +1456,11 @@
       <c r="R17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T17" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1384,11 +1482,11 @@
       <c r="G18" s="1">
         <v>0</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="1">
         <v>0</v>
       </c>
@@ -1413,8 +1511,11 @@
       <c r="R18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T18" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1445,11 +1546,11 @@
       <c r="J19" s="1">
         <v>0</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
       <c r="N19" s="1">
         <v>0</v>
       </c>
@@ -1465,12 +1566,15 @@
       <c r="R19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T19" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="1">
@@ -1521,8 +1625,11 @@
       <c r="R20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1544,16 +1651,16 @@
       <c r="G21" s="1">
         <v>1</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2" t="s">
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
       <c r="N21" s="1">
         <v>0</v>
       </c>
@@ -1569,8 +1676,11 @@
       <c r="R21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T21" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1592,29 +1702,32 @@
       <c r="G22" s="1">
         <v>0</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2" t="s">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2" t="s">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
       <c r="Q22" s="1">
         <v>0</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T22" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1636,29 +1749,32 @@
       <c r="G23" s="1">
         <v>0</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2" t="s">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2" t="s">
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
       <c r="Q23" s="1">
         <v>1</v>
       </c>
       <c r="R23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T23" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1680,29 +1796,32 @@
       <c r="G24" s="1">
         <v>0</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2" t="s">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2" t="s">
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
       <c r="Q24" s="1">
         <v>1</v>
       </c>
       <c r="R24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1724,25 +1843,28 @@
       <c r="G25" s="1">
         <v>1</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2" t="s">
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2" t="s">
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="T25" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1764,23 +1886,26 @@
       <c r="G26" s="1">
         <v>0</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2" t="s">
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="T26" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1802,16 +1927,16 @@
       <c r="G27" s="1">
         <v>1</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2" t="s">
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
       <c r="N27" s="1">
         <v>0</v>
       </c>
@@ -1827,8 +1952,11 @@
       <c r="R27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T27" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1850,16 +1978,16 @@
       <c r="G28" s="1">
         <v>1</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
       <c r="N28" s="1">
         <v>0</v>
       </c>
@@ -1875,8 +2003,11 @@
       <c r="R28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T28" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1898,23 +2029,26 @@
       <c r="G29" s="1">
         <v>0</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2" t="s">
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="T29" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1936,23 +2070,26 @@
       <c r="G30" s="1">
         <v>0</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2" t="s">
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="T30" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1974,16 +2111,16 @@
       <c r="G31" s="1">
         <v>1</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2" t="s">
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
       <c r="N31" s="1">
         <v>0</v>
       </c>
@@ -1998,29 +2135,35 @@
       </c>
       <c r="R31" s="1">
         <v>1</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:R26"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H7:R7"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="H12:J12"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="K29:R29"/>
     <mergeCell ref="K31:M31"/>
@@ -2037,28 +2180,25 @@
     <mergeCell ref="K24:M24"/>
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="K28:M28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="H7:R7"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="N23:P23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/指令集.xlsx
+++ b/documents/指令集.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="166">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -274,6 +274,414 @@
   </si>
   <si>
     <t>0111/-B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUParam1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriteRegister</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Immediate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriteRegisterData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUParam2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPInput</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataMemoryWriteData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMPParam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCBJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCALUAdder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCALUOp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1235</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1235</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterHeapEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPWriteEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1235</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1235</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1235</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>125</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01/11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>125</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>125</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01/11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01/11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TWriteEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>125</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>125</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1235</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1235</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1235</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1235</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IHWriteEN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -338,10 +746,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,10 +1056,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -662,10 +1071,23 @@
     <col min="9" max="18" width="2.5" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="2"/>
     <col min="20" max="20" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="2"/>
+    <col min="21" max="23" width="13.875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="19.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5" style="2" customWidth="1"/>
+    <col min="27" max="27" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" style="2"/>
+    <col min="29" max="29" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9" style="2"/>
+    <col min="32" max="32" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="9" style="2"/>
+    <col min="36" max="36" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,8 +1145,56 @@
       <c r="T1" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="U1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -746,26 +1216,56 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
       <c r="T2" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="U2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -787,30 +1287,60 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
       <c r="N3" s="1">
         <v>0</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
       <c r="T3" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="U3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -841,21 +1371,48 @@
       <c r="J4" s="1">
         <v>1</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
       <c r="T4" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="U4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -877,21 +1434,21 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
       <c r="Q5" s="1">
         <v>0</v>
       </c>
@@ -901,8 +1458,35 @@
       <c r="T5" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="U5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -924,16 +1508,16 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
       <c r="N6" s="1">
         <v>0</v>
       </c>
@@ -952,8 +1536,35 @@
       <c r="T6" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="U6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -975,24 +1586,36 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
       <c r="T7" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="U7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1014,26 +1637,38 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
       <c r="T8" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="U8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1055,26 +1690,38 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
       <c r="T9" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="U9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1105,21 +1752,33 @@
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
       <c r="T10" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="U10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1141,16 +1800,16 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3" t="s">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="1">
         <v>0</v>
       </c>
@@ -1169,8 +1828,26 @@
       <c r="T11" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="U11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL11" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1192,11 +1869,11 @@
       <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="1">
         <v>0</v>
       </c>
@@ -1224,8 +1901,14 @@
       <c r="T12" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="U12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1247,26 +1930,47 @@
       <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
       <c r="T13" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="U13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ13" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1288,28 +1992,55 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3" t="s">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3" t="s">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
       <c r="T14" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="U14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1331,26 +2062,56 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3" t="s">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
       <c r="T15" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="U15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ15" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1372,11 +2133,11 @@
       <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="1">
         <v>0</v>
       </c>
@@ -1404,8 +2165,29 @@
       <c r="T16" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="U16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ16" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1427,11 +2209,11 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="1">
         <v>0</v>
       </c>
@@ -1459,8 +2241,29 @@
       <c r="T17" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="U17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ17" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1482,11 +2285,11 @@
       <c r="G18" s="1">
         <v>0</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="1">
         <v>0</v>
       </c>
@@ -1514,8 +2317,14 @@
       <c r="T18" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="U18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1546,11 +2355,11 @@
       <c r="J19" s="1">
         <v>0</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
       <c r="N19" s="1">
         <v>0</v>
       </c>
@@ -1569,12 +2378,21 @@
       <c r="T19" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="U19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="1">
@@ -1628,8 +2446,11 @@
       <c r="T20" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="U20" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1651,16 +2472,16 @@
       <c r="G21" s="1">
         <v>1</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3" t="s">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
       <c r="N21" s="1">
         <v>0</v>
       </c>
@@ -1679,8 +2500,35 @@
       <c r="T21" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="U21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH21" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ21" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1702,21 +2550,21 @@
       <c r="G22" s="1">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3" t="s">
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3" t="s">
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
       <c r="Q22" s="1">
         <v>0</v>
       </c>
@@ -1726,8 +2574,35 @@
       <c r="T22" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="U22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ22" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1749,21 +2624,21 @@
       <c r="G23" s="1">
         <v>0</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3" t="s">
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3" t="s">
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
       <c r="Q23" s="1">
         <v>1</v>
       </c>
@@ -1773,8 +2648,35 @@
       <c r="T23" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="U23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ23" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1796,21 +2698,21 @@
       <c r="G24" s="1">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3" t="s">
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3" t="s">
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
       <c r="Q24" s="1">
         <v>1</v>
       </c>
@@ -1820,8 +2722,35 @@
       <c r="T24" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="U24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ24" s="2" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1843,28 +2772,49 @@
       <c r="G25" s="1">
         <v>1</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3" t="s">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3" t="s">
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
       <c r="T25" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="U25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH25" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1886,26 +2836,50 @@
       <c r="G26" s="1">
         <v>0</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3" t="s">
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
       <c r="T26" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="U26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH26" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1927,16 +2901,16 @@
       <c r="G27" s="1">
         <v>1</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3" t="s">
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
       <c r="N27" s="1">
         <v>0</v>
       </c>
@@ -1955,8 +2929,29 @@
       <c r="T27" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="U27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ27" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1978,16 +2973,16 @@
       <c r="G28" s="1">
         <v>1</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3" t="s">
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
       <c r="N28" s="1">
         <v>0</v>
       </c>
@@ -2006,8 +3001,35 @@
       <c r="T28" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="U28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH28" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AJ28" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2029,26 +3051,56 @@
       <c r="G29" s="1">
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3" t="s">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
       <c r="T29" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="U29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ29" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2070,26 +3122,44 @@
       <c r="G30" s="1">
         <v>0</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3" t="s">
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
       <c r="T30" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="U30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL30" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2111,16 +3181,16 @@
       <c r="G31" s="1">
         <v>1</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3" t="s">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
       <c r="N31" s="1">
         <v>0</v>
       </c>
@@ -2138,32 +3208,47 @@
       </c>
       <c r="T31" s="2" t="s">
         <v>63</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ31" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="H7:R7"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="K4:R4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:R15"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="K29:R29"/>
     <mergeCell ref="K31:M31"/>
@@ -2180,25 +3265,34 @@
     <mergeCell ref="K24:M24"/>
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="K28:M28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="H12:J12"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="K13:R13"/>
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:R26"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="H7:R7"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
